--- a/Diverses/GE_Avusy_texte.xlsx
+++ b/Diverses/GE_Avusy_texte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_november2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_852CB671C3574AFC124848106A612BE501FF1F8F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1143D3B9-2F5A-43D7-BB2C-C873FEC17202}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="114_{566B0714-B494-48AA-B6C3-5C2FE26C3E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D212F6B-1CE1-446D-9FA4-43C3D83F392D}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
   <si>
     <t>Ja_Stimmen_In_Prozent</t>
   </si>
   <si>
-    <t>Gemeinde_KT_d</t>
-  </si>
-  <si>
-    <t>Gemeinde_KT_f</t>
+    <t>Gemeinde_d</t>
+  </si>
+  <si>
+    <t>Gemeinde_f</t>
   </si>
   <si>
     <t>Storyboard</t>
@@ -37,421 +37,301 @@
     <t>Text_f</t>
   </si>
   <si>
-    <t>Aire-la-Ville GE</t>
-  </si>
-  <si>
-    <t>Anières GE</t>
-  </si>
-  <si>
-    <t>Avully GE</t>
-  </si>
-  <si>
-    <t>Avusy GE</t>
-  </si>
-  <si>
-    <t>Bardonnex GE</t>
-  </si>
-  <si>
-    <t>Bellevue GE</t>
-  </si>
-  <si>
-    <t>Bernex GE</t>
+    <t>Aire-la-Ville</t>
+  </si>
+  <si>
+    <t>Anières</t>
+  </si>
+  <si>
+    <t>Avully</t>
+  </si>
+  <si>
+    <t>Avusy</t>
+  </si>
+  <si>
+    <t>Bardonnex</t>
+  </si>
+  <si>
+    <t>Bellevue</t>
+  </si>
+  <si>
+    <t>Bernex</t>
   </si>
   <si>
     <t>Carouge GE</t>
   </si>
   <si>
-    <t>Cartigny GE</t>
-  </si>
-  <si>
-    <t>Céligny GE</t>
-  </si>
-  <si>
-    <t>Chancy GE</t>
-  </si>
-  <si>
-    <t>Chêne-Bougeries GE</t>
-  </si>
-  <si>
-    <t>Chêne-Bourg GE</t>
-  </si>
-  <si>
-    <t>Choulex GE</t>
-  </si>
-  <si>
-    <t>Collex-Bossy GE</t>
-  </si>
-  <si>
-    <t>Collonge-Bellerive GE</t>
-  </si>
-  <si>
-    <t>Cologny GE</t>
-  </si>
-  <si>
-    <t>Confignon GE</t>
+    <t>Cartigny</t>
+  </si>
+  <si>
+    <t>Céligny</t>
+  </si>
+  <si>
+    <t>Chancy</t>
+  </si>
+  <si>
+    <t>Chêne-Bougeries</t>
+  </si>
+  <si>
+    <t>Chêne-Bourg</t>
+  </si>
+  <si>
+    <t>Choulex</t>
+  </si>
+  <si>
+    <t>Collex-Bossy</t>
+  </si>
+  <si>
+    <t>Collonge-Bellerive</t>
+  </si>
+  <si>
+    <t>Cologny</t>
+  </si>
+  <si>
+    <t>Confignon</t>
   </si>
   <si>
     <t>Corsier GE</t>
   </si>
   <si>
-    <t>Dardagny GE</t>
-  </si>
-  <si>
-    <t>Genf GE</t>
-  </si>
-  <si>
-    <t>Genthod GE</t>
-  </si>
-  <si>
-    <t>Le Grand-Saconnex GE</t>
-  </si>
-  <si>
-    <t>Gy GE</t>
-  </si>
-  <si>
-    <t>Hermance GE</t>
-  </si>
-  <si>
-    <t>Jussy GE</t>
-  </si>
-  <si>
-    <t>Laconnex GE</t>
-  </si>
-  <si>
-    <t>Lancy GE</t>
-  </si>
-  <si>
-    <t>Meinier GE</t>
-  </si>
-  <si>
-    <t>Meyrin GE</t>
-  </si>
-  <si>
-    <t>Onex GE</t>
-  </si>
-  <si>
-    <t>Perly-Certoux GE</t>
-  </si>
-  <si>
-    <t>Plan-les-Ouates GE</t>
-  </si>
-  <si>
-    <t>Pregny-Chambésy GE</t>
-  </si>
-  <si>
-    <t>Presinge GE</t>
-  </si>
-  <si>
-    <t>Puplinge GE</t>
-  </si>
-  <si>
-    <t>Russin GE</t>
-  </si>
-  <si>
-    <t>Satigny GE</t>
-  </si>
-  <si>
-    <t>Soral GE</t>
-  </si>
-  <si>
-    <t>Thônex GE</t>
-  </si>
-  <si>
-    <t>Troinex GE</t>
-  </si>
-  <si>
-    <t>Vandoeuvres GE</t>
-  </si>
-  <si>
-    <t>Vernier GE</t>
-  </si>
-  <si>
-    <t>Versoix GE</t>
-  </si>
-  <si>
-    <t>Veyrier GE</t>
-  </si>
-  <si>
-    <t>Aire-la-Ville (GE)</t>
-  </si>
-  <si>
-    <t>Anières (GE)</t>
-  </si>
-  <si>
-    <t>Avully (GE)</t>
-  </si>
-  <si>
-    <t>Avusy (GE)</t>
-  </si>
-  <si>
-    <t>Bardonnex (GE)</t>
-  </si>
-  <si>
-    <t>Bellevue (GE)</t>
-  </si>
-  <si>
-    <t>Bernex (GE)</t>
+    <t>Dardagny</t>
+  </si>
+  <si>
+    <t>Genf</t>
+  </si>
+  <si>
+    <t>Genthod</t>
+  </si>
+  <si>
+    <t>Le Grand-Saconnex</t>
+  </si>
+  <si>
+    <t>Gy</t>
+  </si>
+  <si>
+    <t>Hermance</t>
+  </si>
+  <si>
+    <t>Jussy</t>
+  </si>
+  <si>
+    <t>Laconnex</t>
+  </si>
+  <si>
+    <t>Lancy</t>
+  </si>
+  <si>
+    <t>Meinier</t>
+  </si>
+  <si>
+    <t>Meyrin</t>
+  </si>
+  <si>
+    <t>Onex</t>
+  </si>
+  <si>
+    <t>Perly-Certoux</t>
+  </si>
+  <si>
+    <t>Plan-les-Ouates</t>
+  </si>
+  <si>
+    <t>Pregny-Chambésy</t>
+  </si>
+  <si>
+    <t>Presinge</t>
+  </si>
+  <si>
+    <t>Puplinge</t>
+  </si>
+  <si>
+    <t>Russin</t>
+  </si>
+  <si>
+    <t>Satigny</t>
+  </si>
+  <si>
+    <t>Soral</t>
+  </si>
+  <si>
+    <t>Thônex</t>
+  </si>
+  <si>
+    <t>Troinex</t>
+  </si>
+  <si>
+    <t>Vandoeuvres</t>
+  </si>
+  <si>
+    <t>Vernier</t>
+  </si>
+  <si>
+    <t>Versoix</t>
+  </si>
+  <si>
+    <t>Veyrier</t>
   </si>
   <si>
     <t>Carouge (GE)</t>
   </si>
   <si>
-    <t>Cartigny (GE)</t>
-  </si>
-  <si>
-    <t>Céligny (GE)</t>
-  </si>
-  <si>
-    <t>Chancy (GE)</t>
-  </si>
-  <si>
-    <t>Chêne-Bougeries (GE)</t>
-  </si>
-  <si>
-    <t>Chêne-Bourg (GE)</t>
-  </si>
-  <si>
-    <t>Choulex (GE)</t>
-  </si>
-  <si>
-    <t>Collex-Bossy (GE)</t>
-  </si>
-  <si>
-    <t>Collonge-Bellerive (GE)</t>
-  </si>
-  <si>
-    <t>Cologny (GE)</t>
-  </si>
-  <si>
-    <t>Confignon (GE)</t>
-  </si>
-  <si>
     <t>Corsier (GE)</t>
   </si>
   <si>
-    <t>Dardagny (GE)</t>
-  </si>
-  <si>
-    <t>Genève (GE)</t>
-  </si>
-  <si>
-    <t>Genthod (GE)</t>
-  </si>
-  <si>
-    <t>Le Grand-Saconnex (GE)</t>
-  </si>
-  <si>
-    <t>Gy (GE)</t>
-  </si>
-  <si>
-    <t>Hermance (GE)</t>
-  </si>
-  <si>
-    <t>Jussy (GE)</t>
-  </si>
-  <si>
-    <t>Laconnex (GE)</t>
-  </si>
-  <si>
-    <t>Lancy (GE)</t>
-  </si>
-  <si>
-    <t>Meinier (GE)</t>
-  </si>
-  <si>
-    <t>Meyrin (GE)</t>
-  </si>
-  <si>
-    <t>Onex (GE)</t>
-  </si>
-  <si>
-    <t>Perly-Certoux (GE)</t>
-  </si>
-  <si>
-    <t>Plan-les-Ouates (GE)</t>
-  </si>
-  <si>
-    <t>Pregny-Chambésy (GE)</t>
-  </si>
-  <si>
-    <t>Presinge (GE)</t>
-  </si>
-  <si>
-    <t>Puplinge (GE)</t>
-  </si>
-  <si>
-    <t>Russin (GE)</t>
-  </si>
-  <si>
-    <t>Satigny (GE)</t>
-  </si>
-  <si>
-    <t>Soral (GE)</t>
-  </si>
-  <si>
-    <t>Thônex (GE)</t>
-  </si>
-  <si>
-    <t>Troinex (GE)</t>
-  </si>
-  <si>
-    <t>Vandoeuvres (GE)</t>
-  </si>
-  <si>
-    <t>Vernier (GE)</t>
-  </si>
-  <si>
-    <t>Versoix (GE)</t>
-  </si>
-  <si>
-    <t>Veyrier (GE)</t>
+    <t>Genève</t>
+  </si>
+  <si>
+    <t>Intro_Sonderfall</t>
+  </si>
+  <si>
+    <t>Intro_Unanimous_Ja;KantonPhrase_Highest_Yes_Kant</t>
+  </si>
+  <si>
+    <t>Intro_Unanimous_Nein;KantonPhrase_Highest_No_Kant</t>
+  </si>
+  <si>
+    <t>Intro_Ja_Avusy;KantonPhrase_Ja_Nein</t>
+  </si>
+  <si>
+    <t>Intro_Ja;KantonPhrase_Ja_Nein</t>
   </si>
   <si>
     <t>Intro_Nein;KantonPhrase_Nein_Nein</t>
   </si>
   <si>
-    <t>Intro_Ja;KantonPhrase_Ja_Nein</t>
-  </si>
-  <si>
-    <t>Intro_Ja;KantonPhrase_Highest_Yes_Kant</t>
-  </si>
-  <si>
-    <t>Intro_Nein;KantonPhrase_Highest_No_Kant</t>
-  </si>
-  <si>
-    <t>Aire-la-Ville rejette la création d’une zone industrielle et artisanale à Avusy avec 80,3 pourcent de non. Aire-la-Ville a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Anières approuve la création d’une zone industrielle et artisanale à Avusy avec 73,9 pourcent de oui. Anières a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>A Avully, les habitants disent oui à 67,2 pourcent à la création d’une zone industrielle et artisanale à Avusy. Avully a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>C'est oui à 57,5 pourcent à la création d’une zone industrielle et artisanale à Avusy à Avusy. Avusy a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>A Bardonnex, les habitants disent oui à 62,3 pourcent à la création d’une zone industrielle et artisanale à Avusy. Bardonnex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>A Bellevue, les habitants disent oui à 90,2 pourcent à la création d’une zone industrielle et artisanale à Avusy. Bellevue a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>A Bernex, les habitants disent oui à 55,8 pourcent à la création d’une zone industrielle et artisanale à Avusy. Bernex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Carouge (GE) rejette la création d’une zone industrielle et artisanale à Avusy avec 50 pourcent de non. Carouge (GE) a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 75,2 pourcent à la création d’une zone industrielle et artisanale à Avusy à Cartigny. Cartigny a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Céligny rejette la création d’une zone industrielle et artisanale à Avusy avec 76,1 pourcent de non. Céligny a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Chancy approuve la création d’une zone industrielle et artisanale à Avusy avec 89,1 pourcent de oui. Chancy a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Chêne-Bougeries approuve la création d’une zone industrielle et artisanale à Avusy avec 50,4 pourcent de oui. Chêne-Bougeries a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Chêne-Bourg rejette la création d’une zone industrielle et artisanale à Avusy avec 60,8 pourcent de non. Chêne-Bourg a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>C'est oui à 74,8 pourcent à la création d’une zone industrielle et artisanale à Avusy à Choulex. Choulex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 82,2 pourcent à la création d’une zone industrielle et artisanale à Avusy à Collex-Bossy. Collex-Bossy a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Collonge-Bellerive rejette la création d’une zone industrielle et artisanale à Avusy avec 87,6 pourcent de non. Collonge-Bellerive a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>C'est oui à 82,4 pourcent à la création d’une zone industrielle et artisanale à Avusy à Cologny. Cologny a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>A Confignon, les habitants disent non à 72 pourcent à la création d’une zone industrielle et artisanale à Avusy. Confignon a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Corsier (GE), les habitants disent non à 52,3 pourcent à la création d’une zone industrielle et artisanale à Avusy. Corsier (GE) a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Dardagny, les habitants disent non à 54,1 pourcent à la création d’une zone industrielle et artisanale à Avusy. Dardagny a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Genève rejette la création d’une zone industrielle et artisanale à Avusy avec 51 pourcent de non. Genève a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Genthod, les habitants disent oui à 64,5 pourcent à la création d’une zone industrielle et artisanale à Avusy. Genthod a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Au Grand-Saconnex, les habitants disent oui à 89,1 pourcent à la création d’une zone industrielle et artisanale à Avusy. Le Grand-Saconnex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Gy approuve la création d’une zone industrielle et artisanale à Avusy avec 70,9 pourcent de oui. Gy a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 74,6 pourcent à la création d’une zone industrielle et artisanale à Avusy à Hermance. Hermance a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>C'est oui à 63,3 pourcent à la création d’une zone industrielle et artisanale à Avusy à Jussy. Jussy a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>C'est oui à 96,5 pourcent à la création d’une zone industrielle et artisanale à Avusy à Laconnex. Laconnex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Lancy approuve la création d’une zone industrielle et artisanale à Avusy avec 85 pourcent de oui. Lancy a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Meinier rejette la création d’une zone industrielle et artisanale à Avusy avec 72,8 pourcent de non. Meinier a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Meyrin, les habitants disent oui à 58,7 pourcent à la création d’une zone industrielle et artisanale à Avusy. Meyrin a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Onex approuve la création d’une zone industrielle et artisanale à Avusy avec 80,5 pourcent de oui. Onex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Perly-Certoux approuve la création d’une zone industrielle et artisanale à Avusy avec 99,9 pourcent de oui. C'est à Perly-Certoux que la forte acceptation de cet objet a été enregistrée dans le canton.</t>
-  </si>
-  <si>
-    <t>Plan-les-Ouates approuve la création d’une zone industrielle et artisanale à Avusy avec 67,8 pourcent de oui. Plan-les-Ouates a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Pregny-Chambésy rejette la création d’une zone industrielle et artisanale à Avusy avec 52,4 pourcent de non. Pregny-Chambésy a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Presinge, les habitants disent non à 69,3 pourcent à la création d’une zone industrielle et artisanale à Avusy. Presinge a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>C'est oui à 96,4 pourcent à la création d’une zone industrielle et artisanale à Avusy à Puplinge. Puplinge a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Russin rejette la création d’une zone industrielle et artisanale à Avusy avec 99 pourcent de non. C'est à Russin que le refus le plus net de cet objet a été enregistré dans le canton.</t>
-  </si>
-  <si>
-    <t>A Satigny, les habitants disent oui à 52,5 pourcent à la création d’une zone industrielle et artisanale à Avusy. Satigny a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>A Soral, les habitants disent non à 72,7 pourcent à la création d’une zone industrielle et artisanale à Avusy. Soral a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Thônex, les habitants disent non à 72,3 pourcent à la création d’une zone industrielle et artisanale à Avusy. Thônex a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 92,1 pourcent à la création d’une zone industrielle et artisanale à Avusy à Troinex. Troinex a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Vandoeuvres, les habitants disent oui à 83 pourcent à la création d’une zone industrielle et artisanale à Avusy. Vandoeuvres a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>A Vernier, les habitants disent oui à 61,5 pourcent à la création d’une zone industrielle et artisanale à Avusy. Vernier a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 88,1 pourcent à la création d’une zone industrielle et artisanale à Avusy à Versoix. Versoix a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Veyrier, les habitants disent oui à 96,3 pourcent à la création d’une zone industrielle et artisanale à Avusy. Veyrier a approuvé le texte, contrairement à son canton.</t>
+    <t>Egalité parfaite à Aire-la-Ville! Les électeurs de cette commune sont 500 à accepter la création d’une zone industrielle et artisanale à Avusy et 500 à la refuser.</t>
+  </si>
+  <si>
+    <t>Résultat clair et net à Anières. Les 1'000 électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la création d’une zone industrielle et artisanale à Avusy. C'est à Anières que la forte acceptation de cet objet a été enregistrée dans le canton.</t>
+  </si>
+  <si>
+    <t>Refus clair et net à Avully. Les 1'000 électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la création d’une zone industrielle et artisanale à Avusy. C'est à Avully que le refus le plus net de cet objet a été enregistré dans le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants d'Avusy disent oui à 83 pourcent à la création d’une zone industrielle et artisanale dans leur propre commune. Avusy a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Bardonnex, les habitants disent oui à 80 pourcent à la création d’une zone industrielle et artisanale à Avusy. Bardonnex a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Bellevue, les habitants disent non à 80 pourcent à la création d’une zone industrielle et artisanale à Avusy. Bellevue a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Bernex, les habitants disent oui à 61,5 pourcent à la création d’une zone industrielle et artisanale à Avusy. Bernex a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Carouge (GE) rejette la création d’une zone industrielle et artisanale à Avusy avec 88,1 pourcent de non. Carouge (GE) a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>C'est oui à 96,3 pourcent à la création d’une zone industrielle et artisanale à Avusy à Cartigny. Cartigny a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Céligny approuve la création d’une zone industrielle et artisanale à Avusy avec 69,1 pourcent de oui. Céligny a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Chancy approuve la création d’une zone industrielle et artisanale à Avusy avec 56 pourcent de oui. Chancy a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Chêne-Bougeries approuve la création d’une zone industrielle et artisanale à Avusy avec 51,9 pourcent de oui. Chêne-Bougeries a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Chêne-Bourg approuve la création d’une zone industrielle et artisanale à Avusy avec 60,3 pourcent de oui. Chêne-Bourg a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 78,1 pourcent à la création d’une zone industrielle et artisanale à Avusy à Choulex. Choulex a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 72,2 pourcent à la création d’une zone industrielle et artisanale à Avusy à Collex-Bossy. Collex-Bossy a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Collonge-Bellerive rejette la création d’une zone industrielle et artisanale à Avusy avec 84,3 pourcent de non. Collonge-Bellerive a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>C'est oui à 99,6 pourcent à la création d’une zone industrielle et artisanale à Avusy à Cologny. Cologny a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Confignon, les habitants disent non à 60,2 pourcent à la création d’une zone industrielle et artisanale à Avusy. Confignon a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Corsier (GE), les habitants disent non à 64,4 pourcent à la création d’une zone industrielle et artisanale à Avusy. Corsier (GE) a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Dardagny, les habitants disent oui à 51,1 pourcent à la création d’une zone industrielle et artisanale à Avusy. Dardagny a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Genève approuve la création d’une zone industrielle et artisanale à Avusy avec 61,3 pourcent de oui. Genève a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Genthod, les habitants disent non à 60 pourcent à la création d’une zone industrielle et artisanale à Avusy. Genthod a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Au Grand-Saconnex, les habitants disent non à 67,1 pourcent à la création d’une zone industrielle et artisanale à Avusy. Le Grand-Saconnex a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Gy approuve la création d’une zone industrielle et artisanale à Avusy avec 86,7 pourcent de oui. Gy a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 51,8 pourcent à la création d’une zone industrielle et artisanale à Avusy à Hermance. Hermance a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>C'est oui à 52,3 pourcent à la création d’une zone industrielle et artisanale à Avusy à Jussy. Jussy a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>C'est oui à 53,9 pourcent à la création d’une zone industrielle et artisanale à Avusy à Laconnex. Laconnex a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Lancy approuve la création d’une zone industrielle et artisanale à Avusy avec 99,9 pourcent de oui. Lancy a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Meinier approuve la création d’une zone industrielle et artisanale à Avusy avec 95 pourcent de oui. Meinier a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Meyrin, les habitants disent non à 62,6 pourcent à la création d’une zone industrielle et artisanale à Avusy. Meyrin a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Onex rejette la création d’une zone industrielle et artisanale à Avusy avec 63,6 pourcent de non. Onex a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Perly-Certoux approuve la création d’une zone industrielle et artisanale à Avusy avec 70,6 pourcent de oui. Perly-Certoux a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Plan-les-Ouates rejette la création d’une zone industrielle et artisanale à Avusy avec 60,9 pourcent de non. Plan-les-Ouates a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Pregny-Chambésy rejette la création d’une zone industrielle et artisanale à Avusy avec 51,8 pourcent de non. Pregny-Chambésy a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Presinge, les habitants disent oui à 60,6 pourcent à la création d’une zone industrielle et artisanale à Avusy. Presinge a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>C'est oui à 89,9 pourcent à la création d’une zone industrielle et artisanale à Avusy à Puplinge. Puplinge a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Russin approuve la création d’une zone industrielle et artisanale à Avusy avec 94,1 pourcent de oui. Russin a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Satigny, les habitants disent non à 60,6 pourcent à la création d’une zone industrielle et artisanale à Avusy. Satigny a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Soral, les habitants disent oui à 63,1 pourcent à la création d’une zone industrielle et artisanale à Avusy. Soral a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Thônex, les habitants disent oui à 78,7 pourcent à la création d’une zone industrielle et artisanale à Avusy. Thônex a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 59,4 pourcent à la création d’une zone industrielle et artisanale à Avusy à Troinex. Troinex a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Vandoeuvres, les habitants disent non à 61,5 pourcent à la création d’une zone industrielle et artisanale à Avusy. Vandoeuvres a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Vernier, les habitants disent oui à 53,3 pourcent à la création d’une zone industrielle et artisanale à Avusy. Vernier a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 55,4 pourcent à la création d’une zone industrielle et artisanale à Avusy à Versoix. Versoix a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Veyrier, les habitants disent non à 52,4 pourcent à la création d’une zone industrielle et artisanale à Avusy. Veyrier a rejeté le texte, tout comme son canton.</t>
   </si>
 </sst>
 </file>
@@ -827,19 +707,18 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -858,767 +737,767 @@
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>19.694054262074275</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>73.887240356083083</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>67.194341529134391</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>57.466434354822177</v>
+        <v>83.042735042735046</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>62.330214307274375</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>90.177281680892975</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>55.805306743282067</v>
+        <v>61.453373379239615</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>49.983039348710989</v>
+        <v>11.927927927927929</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>24.844302306009091</v>
+        <v>96.290771678599839</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>23.942126647507681</v>
+        <v>69.088043556128667</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>89.11570938108936</v>
+        <v>55.966510258533447</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>50.433897578744379</v>
+        <v>51.896418944936464</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>39.189397441824624</v>
+        <v>60.256410256410255</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>74.838149376282956</v>
+        <v>21.853966959004691</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>17.823560486001057</v>
+        <v>27.772664519098022</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>12.369172216936251</v>
+        <v>15.658887828576386</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>82.366291691336102</v>
+        <v>99.587467945144382</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>27.976306078850261</v>
+        <v>39.789977126221665</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>47.679640718562872</v>
+        <v>35.578635014836799</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>45.853053865224254</v>
+        <v>51.147116007777058</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>48.974073484968983</v>
+        <v>61.28950481663005</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>64.472455648926243</v>
+        <v>40.002952247398333</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>89.06520484708598</v>
+        <v>32.928091050181067</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>70.926339285714292</v>
+        <v>86.710864832772614</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25.397622635191695</v>
+        <v>48.194867333623314</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>63.270086671351606</v>
+        <v>52.26784755770263</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>96.455850901313781</v>
+        <v>53.870431893687709</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>85.006280689733927</v>
+        <v>99.878971255673221</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>27.203198331305405</v>
+        <v>95.001581777918375</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>58.692143825447033</v>
+        <v>37.414383561643838</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>80.503557744937055</v>
+        <v>36.352365415986952</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>99.862637362637358</v>
+        <v>70.620824507088159</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>67.769784172661872</v>
+        <v>39.110429447852759</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>47.585984175682221</v>
+        <v>48.174608844752449</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>30.719727790517052</v>
+        <v>60.647787304061659</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>96.401028277634964</v>
+        <v>89.865040228393454</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.98920863309352514</v>
+        <v>94.138580699183592</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>52.537764350453173</v>
+        <v>39.43287549844927</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>27.345442426262288</v>
+        <v>63.073344479174239</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>27.682238193018481</v>
+        <v>78.663214422708094</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>7.8535577206967817</v>
+        <v>40.618101545253865</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>83.042735042735046</v>
+        <v>38.537429684119431</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>61.453373379239615</v>
+        <v>53.259819703799096</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>11.927927927927929</v>
+        <v>44.597591888466411</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>96.290771678599839</v>
+        <v>47.633187772925766</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
